--- a/testDataFiles/TestLinks.xlsx
+++ b/testDataFiles/TestLinks.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://www.flipkart.com/</t>
   </si>
@@ -32,6 +33,12 @@
   </si>
   <si>
     <t>URL List</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
   </si>
 </sst>
 </file>
@@ -393,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +449,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testDataFiles/TestLinks.xlsx
+++ b/testDataFiles/TestLinks.xlsx
@@ -4,48 +4,48 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Alllinks" sheetId="1" r:id="rId1"/>
+    <sheet name="OtherDomain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>https://www.flipkart.com/</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mobile-phones-store?otracker=nmenu_sub_Electronics_0_Mobiles</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/mens-footwear/pr?sid=osp,cil&amp;otracker=nmenu_sub_Men_0_Footwear</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/toysclp-store?otracker=nmenu_sub_Baby%20%26%20Kids_0_Toys</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/offers-store?otracker=nmenu_offer-zone</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>URL List</t>
   </si>
   <si>
-    <t>Shirts</t>
-  </si>
-  <si>
-    <t>T-shirts</t>
+    <t>https://lifecharger.org/</t>
+  </si>
+  <si>
+    <t>https://phptravels.com/demo/</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>BaseUrl</t>
+  </si>
+  <si>
+    <t>PageUrl</t>
+  </si>
+  <si>
+    <t>https://lifecharger.org/books-i-am-reading/</t>
+  </si>
+  <si>
+    <t>https://phptravels.com/services/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +57,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,7 +100,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,45 +406,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" customWidth="1"/>
+    <col min="1" max="1" width="91.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -444,8 +442,6 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -453,25 +449,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestLinks.xlsx
+++ b/testDataFiles/TestLinks.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Links</t>
+  </si>
+  <si>
+    <t>S.no</t>
   </si>
 </sst>
 </file>
@@ -359,16 +362,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
